--- a/data.xlsx
+++ b/data.xlsx
@@ -1046,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A245" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A250" activeCellId="0" sqref="A250"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1046,16 +1046,16 @@
   </sheetPr>
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D127" activeCellId="0" sqref="D127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
